--- a/Sorteio times posição-nivel e adm/Versão Flask/bancodedados.xlsx
+++ b/Sorteio times posição-nivel e adm/Versão Flask/bancodedados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edson\Documents\GitHub\Pelada100Pressao\Sorteio times posição-nivel e adm\Lista de Jogadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edson\Documents\GitHub\Pelada100Pressao\Sorteio times posição-nivel e adm\Versão flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F540DA98-D5D5-42D2-B8F9-9A876A09680A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592F3C8E-9AEF-44D5-8335-C71260A32DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{83CB205B-243F-4188-AD5D-AD4961CDDABE}"/>
   </bookViews>
@@ -636,7 +636,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
